--- a/biology/Zoologie/Harpadon_mortenseni/Harpadon_mortenseni.xlsx
+++ b/biology/Zoologie/Harpadon_mortenseni/Harpadon_mortenseni.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon mortenseni est une espèce de poissons de la famille des Synodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Harpadon mortenseni a été décrite pour la première fois en 1933 par Johann Dietrich Franz Hardenberg[1],[2] (1902 - ?), alors directeur de l'Institut central de la marine et de la pêche de Djakarta.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Harpadon mortenseni a été décrite pour la première fois en 1933 par Johann Dietrich Franz Hardenberg, (1902 - ?), alors directeur de l'Institut central de la marine et de la pêche de Djakarta.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce n'a été repérée que dans la mer de Bali à une profondeur comprise entre 200 et 300 m.
 </t>
@@ -573,9 +589,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Harpadon mortenseni mesure 80 mm et les paratypes entre 80 et 105 mm[2]. C'est une espèce au corps très allongé[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Harpadon mortenseni mesure 80 mm et les paratypes entre 80 et 105 mm. C'est une espèce au corps très allongé.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, mortenseni, lui a été donnée en l'honneur du zoologiste danois Theodor Mortensen (1868-1952) qui a capturé le premier spécimen[2],[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, mortenseni, lui a été donnée en l'honneur du zoologiste danois Theodor Mortensen (1868-1952) qui a capturé le premier spécimen,.
 </t>
         </is>
       </c>
@@ -632,41 +652,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Comportement</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Prédateurs
-Proies</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Harpadon_mortenseni</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Harpadon_mortenseni</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en + de + nl + fr) J. D. F. Hardenberg, « Some New or Rare Fishes of the Indo Australian Archipelago II », Treubia, Jakarta, vol. 14, no 2,‎ décembre 1933, p. 215-226 (ISSN 0082-6340, OCLC 1716369, lire en ligne)</t>
         </is>
